--- a/predicciones_muestreo.xlsx
+++ b/predicciones_muestreo.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -10395,7 +10395,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -10659,7 +10659,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -10967,7 +10967,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
     </row>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
     </row>
